--- a/exam/B/MS5318-Exam-Data.xlsx
+++ b/exam/B/MS5318-Exam-Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5672354C-2DA8-4830-B292-712430FF1DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD069F53-1F1B-4C9C-AD7C-3CC2B415C179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colors_Regions" sheetId="5" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B114F6-D7BA-41D0-9E6A-626934C4112E}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5560,7 +5560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
